--- a/IHK_DOKU_INHALT/Amortisation.xlsx
+++ b/IHK_DOKU_INHALT/Amortisation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Ausbildung-IT\Rund um die IHK Prüfungen\Abschlussprojekte\Kevin Ament\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Entwicklung\ProjektBackend\ComBookBackEnd\IHK_DOKU_INHALT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -247,25 +247,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>4400</c:v>
+                  <c:v>4800</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4400</c:v>
+                  <c:v>4800</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4400</c:v>
+                  <c:v>4800</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4400</c:v>
+                  <c:v>4800</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4400</c:v>
+                  <c:v>4800</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4400</c:v>
+                  <c:v>4800</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4400</c:v>
+                  <c:v>4800</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1432,7 +1432,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="Z5" sqref="Z5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1462,25 +1462,25 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>4400</v>
+        <v>4800</v>
       </c>
       <c r="B2">
-        <v>4400</v>
+        <v>4800</v>
       </c>
       <c r="C2">
-        <v>4400</v>
+        <v>4800</v>
       </c>
       <c r="D2">
-        <v>4400</v>
+        <v>4800</v>
       </c>
       <c r="E2">
-        <v>4400</v>
+        <v>4800</v>
       </c>
       <c r="F2">
-        <v>4400</v>
+        <v>4800</v>
       </c>
       <c r="G2">
-        <v>4400</v>
+        <v>4800</v>
       </c>
     </row>
   </sheetData>
